--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -391,6 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -417,7 +418,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,7 +1020,7 @@
           <t>BVAbIC BAU Value Added by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="n">
+      <c r="C1" s="38" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1221,240 +1221,240 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="38" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="43" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>TTL: Total</t>
         </is>
       </c>
-      <c r="D3" s="41" t="n"/>
-      <c r="E3" s="41" t="n"/>
-      <c r="F3" s="41" t="n"/>
-      <c r="G3" s="41" t="n"/>
-      <c r="H3" s="41" t="n"/>
-      <c r="I3" s="41" t="n"/>
-      <c r="J3" s="41" t="n"/>
-      <c r="K3" s="41" t="n"/>
-      <c r="L3" s="41" t="n"/>
-      <c r="M3" s="41" t="n"/>
-      <c r="N3" s="41" t="n"/>
-      <c r="O3" s="41" t="n"/>
-      <c r="P3" s="41" t="n"/>
-      <c r="Q3" s="41" t="n"/>
-      <c r="R3" s="41" t="n"/>
-      <c r="S3" s="41" t="n"/>
-      <c r="T3" s="41" t="n"/>
-      <c r="U3" s="41" t="n"/>
-      <c r="V3" s="41" t="n"/>
-      <c r="W3" s="41" t="n"/>
-      <c r="X3" s="41" t="n"/>
-      <c r="Y3" s="41" t="n"/>
-      <c r="Z3" s="41" t="n"/>
-      <c r="AA3" s="41" t="n"/>
-      <c r="AB3" s="41" t="n"/>
-      <c r="AC3" s="41" t="n"/>
-      <c r="AD3" s="41" t="n"/>
-      <c r="AE3" s="41" t="n"/>
-      <c r="AF3" s="41" t="n"/>
-      <c r="AG3" s="41" t="n"/>
-      <c r="AH3" s="41" t="n"/>
-      <c r="AI3" s="41" t="n"/>
-      <c r="AJ3" s="41" t="n"/>
-      <c r="AK3" s="41" t="n"/>
-      <c r="AL3" s="41" t="n"/>
-      <c r="AM3" s="41" t="n"/>
-      <c r="AN3" s="41" t="n"/>
-      <c r="AO3" s="41" t="n"/>
-      <c r="AP3" s="41" t="n"/>
-      <c r="AQ3" s="41" t="n"/>
-      <c r="AR3" s="41" t="n"/>
-      <c r="AS3" s="41" t="n"/>
-      <c r="AT3" s="41" t="n"/>
-      <c r="AU3" s="39" t="n"/>
+      <c r="D3" s="42" t="n"/>
+      <c r="E3" s="42" t="n"/>
+      <c r="F3" s="42" t="n"/>
+      <c r="G3" s="42" t="n"/>
+      <c r="H3" s="42" t="n"/>
+      <c r="I3" s="42" t="n"/>
+      <c r="J3" s="42" t="n"/>
+      <c r="K3" s="42" t="n"/>
+      <c r="L3" s="42" t="n"/>
+      <c r="M3" s="42" t="n"/>
+      <c r="N3" s="42" t="n"/>
+      <c r="O3" s="42" t="n"/>
+      <c r="P3" s="42" t="n"/>
+      <c r="Q3" s="42" t="n"/>
+      <c r="R3" s="42" t="n"/>
+      <c r="S3" s="42" t="n"/>
+      <c r="T3" s="42" t="n"/>
+      <c r="U3" s="42" t="n"/>
+      <c r="V3" s="42" t="n"/>
+      <c r="W3" s="42" t="n"/>
+      <c r="X3" s="42" t="n"/>
+      <c r="Y3" s="42" t="n"/>
+      <c r="Z3" s="42" t="n"/>
+      <c r="AA3" s="42" t="n"/>
+      <c r="AB3" s="42" t="n"/>
+      <c r="AC3" s="42" t="n"/>
+      <c r="AD3" s="42" t="n"/>
+      <c r="AE3" s="42" t="n"/>
+      <c r="AF3" s="42" t="n"/>
+      <c r="AG3" s="42" t="n"/>
+      <c r="AH3" s="42" t="n"/>
+      <c r="AI3" s="42" t="n"/>
+      <c r="AJ3" s="42" t="n"/>
+      <c r="AK3" s="42" t="n"/>
+      <c r="AL3" s="42" t="n"/>
+      <c r="AM3" s="42" t="n"/>
+      <c r="AN3" s="42" t="n"/>
+      <c r="AO3" s="42" t="n"/>
+      <c r="AP3" s="42" t="n"/>
+      <c r="AQ3" s="42" t="n"/>
+      <c r="AR3" s="42" t="n"/>
+      <c r="AS3" s="42" t="n"/>
+      <c r="AT3" s="42" t="n"/>
+      <c r="AU3" s="40" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="41" t="n"/>
-      <c r="E4" s="41" t="n"/>
-      <c r="F4" s="41" t="n"/>
-      <c r="G4" s="41" t="n"/>
-      <c r="H4" s="41" t="n"/>
-      <c r="I4" s="41" t="n"/>
-      <c r="J4" s="41" t="n"/>
-      <c r="K4" s="41" t="n"/>
-      <c r="L4" s="41" t="n"/>
-      <c r="M4" s="41" t="n"/>
-      <c r="N4" s="41" t="n"/>
-      <c r="O4" s="41" t="n"/>
-      <c r="P4" s="41" t="n"/>
-      <c r="Q4" s="41" t="n"/>
-      <c r="R4" s="41" t="n"/>
-      <c r="S4" s="41" t="n"/>
-      <c r="T4" s="41" t="n"/>
-      <c r="U4" s="41" t="n"/>
-      <c r="V4" s="41" t="n"/>
-      <c r="W4" s="41" t="n"/>
-      <c r="X4" s="41" t="n"/>
-      <c r="Y4" s="41" t="n"/>
-      <c r="Z4" s="41" t="n"/>
-      <c r="AA4" s="41" t="n"/>
-      <c r="AB4" s="41" t="n"/>
-      <c r="AC4" s="41" t="n"/>
-      <c r="AD4" s="41" t="n"/>
-      <c r="AE4" s="41" t="n"/>
-      <c r="AF4" s="41" t="n"/>
-      <c r="AG4" s="41" t="n"/>
-      <c r="AH4" s="41" t="n"/>
-      <c r="AI4" s="41" t="n"/>
-      <c r="AJ4" s="41" t="n"/>
-      <c r="AK4" s="41" t="n"/>
-      <c r="AL4" s="41" t="n"/>
-      <c r="AM4" s="41" t="n"/>
-      <c r="AN4" s="41" t="n"/>
-      <c r="AO4" s="41" t="n"/>
-      <c r="AP4" s="41" t="n"/>
-      <c r="AQ4" s="41" t="n"/>
-      <c r="AR4" s="41" t="n"/>
-      <c r="AS4" s="41" t="n"/>
-      <c r="AT4" s="41" t="n"/>
-      <c r="AU4" s="39" t="n"/>
+      <c r="D4" s="42" t="n"/>
+      <c r="E4" s="42" t="n"/>
+      <c r="F4" s="42" t="n"/>
+      <c r="G4" s="42" t="n"/>
+      <c r="H4" s="42" t="n"/>
+      <c r="I4" s="42" t="n"/>
+      <c r="J4" s="42" t="n"/>
+      <c r="K4" s="42" t="n"/>
+      <c r="L4" s="42" t="n"/>
+      <c r="M4" s="42" t="n"/>
+      <c r="N4" s="42" t="n"/>
+      <c r="O4" s="42" t="n"/>
+      <c r="P4" s="42" t="n"/>
+      <c r="Q4" s="42" t="n"/>
+      <c r="R4" s="42" t="n"/>
+      <c r="S4" s="42" t="n"/>
+      <c r="T4" s="42" t="n"/>
+      <c r="U4" s="42" t="n"/>
+      <c r="V4" s="42" t="n"/>
+      <c r="W4" s="42" t="n"/>
+      <c r="X4" s="42" t="n"/>
+      <c r="Y4" s="42" t="n"/>
+      <c r="Z4" s="42" t="n"/>
+      <c r="AA4" s="42" t="n"/>
+      <c r="AB4" s="42" t="n"/>
+      <c r="AC4" s="42" t="n"/>
+      <c r="AD4" s="42" t="n"/>
+      <c r="AE4" s="42" t="n"/>
+      <c r="AF4" s="42" t="n"/>
+      <c r="AG4" s="42" t="n"/>
+      <c r="AH4" s="42" t="n"/>
+      <c r="AI4" s="42" t="n"/>
+      <c r="AJ4" s="42" t="n"/>
+      <c r="AK4" s="42" t="n"/>
+      <c r="AL4" s="42" t="n"/>
+      <c r="AM4" s="42" t="n"/>
+      <c r="AN4" s="42" t="n"/>
+      <c r="AO4" s="42" t="n"/>
+      <c r="AP4" s="42" t="n"/>
+      <c r="AQ4" s="42" t="n"/>
+      <c r="AR4" s="42" t="n"/>
+      <c r="AS4" s="42" t="n"/>
+      <c r="AT4" s="42" t="n"/>
+      <c r="AU4" s="40" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
-      <c r="C5" s="40" t="inlineStr">
+      <c r="B5" s="40" t="n"/>
+      <c r="C5" s="41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="41" t="n"/>
-      <c r="E5" s="41" t="n"/>
-      <c r="F5" s="41" t="n"/>
-      <c r="G5" s="41" t="n"/>
-      <c r="H5" s="41" t="n"/>
-      <c r="I5" s="41" t="n"/>
-      <c r="J5" s="41" t="n"/>
-      <c r="K5" s="41" t="n"/>
-      <c r="L5" s="41" t="n"/>
-      <c r="M5" s="41" t="n"/>
-      <c r="N5" s="41" t="n"/>
-      <c r="O5" s="41" t="n"/>
-      <c r="P5" s="41" t="n"/>
-      <c r="Q5" s="41" t="n"/>
-      <c r="R5" s="41" t="n"/>
-      <c r="S5" s="41" t="n"/>
-      <c r="T5" s="41" t="n"/>
-      <c r="U5" s="41" t="n"/>
-      <c r="V5" s="41" t="n"/>
-      <c r="W5" s="41" t="n"/>
-      <c r="X5" s="41" t="n"/>
-      <c r="Y5" s="41" t="n"/>
-      <c r="Z5" s="41" t="n"/>
-      <c r="AA5" s="41" t="n"/>
-      <c r="AB5" s="41" t="n"/>
-      <c r="AC5" s="41" t="n"/>
-      <c r="AD5" s="41" t="n"/>
-      <c r="AE5" s="41" t="n"/>
-      <c r="AF5" s="41" t="n"/>
-      <c r="AG5" s="41" t="n"/>
-      <c r="AH5" s="41" t="n"/>
-      <c r="AI5" s="41" t="n"/>
-      <c r="AJ5" s="41" t="n"/>
-      <c r="AK5" s="41" t="n"/>
-      <c r="AL5" s="41" t="n"/>
-      <c r="AM5" s="41" t="n"/>
-      <c r="AN5" s="41" t="n"/>
-      <c r="AO5" s="41" t="n"/>
-      <c r="AP5" s="41" t="n"/>
-      <c r="AQ5" s="41" t="n"/>
-      <c r="AR5" s="41" t="n"/>
-      <c r="AS5" s="41" t="n"/>
-      <c r="AT5" s="41" t="n"/>
-      <c r="AU5" s="39" t="n"/>
+      <c r="D5" s="42" t="n"/>
+      <c r="E5" s="42" t="n"/>
+      <c r="F5" s="42" t="n"/>
+      <c r="G5" s="42" t="n"/>
+      <c r="H5" s="42" t="n"/>
+      <c r="I5" s="42" t="n"/>
+      <c r="J5" s="42" t="n"/>
+      <c r="K5" s="42" t="n"/>
+      <c r="L5" s="42" t="n"/>
+      <c r="M5" s="42" t="n"/>
+      <c r="N5" s="42" t="n"/>
+      <c r="O5" s="42" t="n"/>
+      <c r="P5" s="42" t="n"/>
+      <c r="Q5" s="42" t="n"/>
+      <c r="R5" s="42" t="n"/>
+      <c r="S5" s="42" t="n"/>
+      <c r="T5" s="42" t="n"/>
+      <c r="U5" s="42" t="n"/>
+      <c r="V5" s="42" t="n"/>
+      <c r="W5" s="42" t="n"/>
+      <c r="X5" s="42" t="n"/>
+      <c r="Y5" s="42" t="n"/>
+      <c r="Z5" s="42" t="n"/>
+      <c r="AA5" s="42" t="n"/>
+      <c r="AB5" s="42" t="n"/>
+      <c r="AC5" s="42" t="n"/>
+      <c r="AD5" s="42" t="n"/>
+      <c r="AE5" s="42" t="n"/>
+      <c r="AF5" s="42" t="n"/>
+      <c r="AG5" s="42" t="n"/>
+      <c r="AH5" s="42" t="n"/>
+      <c r="AI5" s="42" t="n"/>
+      <c r="AJ5" s="42" t="n"/>
+      <c r="AK5" s="42" t="n"/>
+      <c r="AL5" s="42" t="n"/>
+      <c r="AM5" s="42" t="n"/>
+      <c r="AN5" s="42" t="n"/>
+      <c r="AO5" s="42" t="n"/>
+      <c r="AP5" s="42" t="n"/>
+      <c r="AQ5" s="42" t="n"/>
+      <c r="AR5" s="42" t="n"/>
+      <c r="AS5" s="42" t="n"/>
+      <c r="AT5" s="42" t="n"/>
+      <c r="AU5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="38" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="39" t="n"/>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="41" t="n"/>
-      <c r="E6" s="41" t="n"/>
-      <c r="F6" s="41" t="n"/>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="41" t="n"/>
-      <c r="I6" s="41" t="n"/>
-      <c r="J6" s="41" t="n"/>
-      <c r="K6" s="41" t="n"/>
-      <c r="L6" s="41" t="n"/>
-      <c r="M6" s="41" t="n"/>
-      <c r="N6" s="41" t="n"/>
-      <c r="O6" s="41" t="n"/>
-      <c r="P6" s="41" t="n"/>
-      <c r="Q6" s="41" t="n"/>
-      <c r="R6" s="41" t="n"/>
-      <c r="S6" s="41" t="n"/>
-      <c r="T6" s="41" t="n"/>
-      <c r="U6" s="41" t="n"/>
-      <c r="V6" s="41" t="n"/>
-      <c r="W6" s="41" t="n"/>
-      <c r="X6" s="41" t="n"/>
-      <c r="Y6" s="41" t="n"/>
-      <c r="Z6" s="41" t="n"/>
-      <c r="AA6" s="41" t="n"/>
-      <c r="AB6" s="41" t="n"/>
-      <c r="AC6" s="41" t="n"/>
-      <c r="AD6" s="41" t="n"/>
-      <c r="AE6" s="41" t="n"/>
-      <c r="AF6" s="41" t="n"/>
-      <c r="AG6" s="41" t="n"/>
-      <c r="AH6" s="41" t="n"/>
-      <c r="AI6" s="41" t="n"/>
-      <c r="AJ6" s="41" t="n"/>
-      <c r="AK6" s="41" t="n"/>
-      <c r="AL6" s="41" t="n"/>
-      <c r="AM6" s="41" t="n"/>
-      <c r="AN6" s="41" t="n"/>
-      <c r="AO6" s="41" t="n"/>
-      <c r="AP6" s="41" t="n"/>
-      <c r="AQ6" s="41" t="n"/>
-      <c r="AR6" s="41" t="n"/>
-      <c r="AS6" s="41" t="n"/>
-      <c r="AT6" s="41" t="n"/>
-      <c r="AU6" s="39" t="n"/>
+      <c r="D6" s="42" t="n"/>
+      <c r="E6" s="42" t="n"/>
+      <c r="F6" s="42" t="n"/>
+      <c r="G6" s="42" t="n"/>
+      <c r="H6" s="42" t="n"/>
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n"/>
+      <c r="K6" s="42" t="n"/>
+      <c r="L6" s="42" t="n"/>
+      <c r="M6" s="42" t="n"/>
+      <c r="N6" s="42" t="n"/>
+      <c r="O6" s="42" t="n"/>
+      <c r="P6" s="42" t="n"/>
+      <c r="Q6" s="42" t="n"/>
+      <c r="R6" s="42" t="n"/>
+      <c r="S6" s="42" t="n"/>
+      <c r="T6" s="42" t="n"/>
+      <c r="U6" s="42" t="n"/>
+      <c r="V6" s="42" t="n"/>
+      <c r="W6" s="42" t="n"/>
+      <c r="X6" s="42" t="n"/>
+      <c r="Y6" s="42" t="n"/>
+      <c r="Z6" s="42" t="n"/>
+      <c r="AA6" s="42" t="n"/>
+      <c r="AB6" s="42" t="n"/>
+      <c r="AC6" s="42" t="n"/>
+      <c r="AD6" s="42" t="n"/>
+      <c r="AE6" s="42" t="n"/>
+      <c r="AF6" s="42" t="n"/>
+      <c r="AG6" s="42" t="n"/>
+      <c r="AH6" s="42" t="n"/>
+      <c r="AI6" s="42" t="n"/>
+      <c r="AJ6" s="42" t="n"/>
+      <c r="AK6" s="42" t="n"/>
+      <c r="AL6" s="42" t="n"/>
+      <c r="AM6" s="42" t="n"/>
+      <c r="AN6" s="42" t="n"/>
+      <c r="AO6" s="42" t="n"/>
+      <c r="AP6" s="42" t="n"/>
+      <c r="AQ6" s="42" t="n"/>
+      <c r="AR6" s="42" t="n"/>
+      <c r="AS6" s="42" t="n"/>
+      <c r="AT6" s="42" t="n"/>
+      <c r="AU6" s="40" t="n"/>
     </row>
     <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="39" t="n"/>
+      <c r="B7" s="40" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -7664,80 +7664,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="inlineStr">
+      <c r="A3" s="46" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="46" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="47" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="41" t="n"/>
-      <c r="E3" s="41" t="n"/>
-      <c r="F3" s="41" t="n"/>
-      <c r="G3" s="41" t="n"/>
-      <c r="H3" s="41" t="n"/>
-      <c r="I3" s="41" t="n"/>
-      <c r="J3" s="41" t="n"/>
-      <c r="K3" s="41" t="n"/>
-      <c r="L3" s="41" t="n"/>
-      <c r="M3" s="41" t="n"/>
-      <c r="N3" s="39" t="n"/>
+      <c r="D3" s="42" t="n"/>
+      <c r="E3" s="42" t="n"/>
+      <c r="F3" s="42" t="n"/>
+      <c r="G3" s="42" t="n"/>
+      <c r="H3" s="42" t="n"/>
+      <c r="I3" s="42" t="n"/>
+      <c r="J3" s="42" t="n"/>
+      <c r="K3" s="42" t="n"/>
+      <c r="L3" s="42" t="n"/>
+      <c r="M3" s="42" t="n"/>
+      <c r="N3" s="40" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="44" t="inlineStr">
+      <c r="A4" s="45" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="47" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="48" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="47" t="inlineStr">
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="48" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="47" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="48" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="47" t="inlineStr">
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="48" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="47" t="inlineStr">
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="48" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="47" t="inlineStr">
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="48" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="39" t="n"/>
+      <c r="N4" s="40" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="44" t="inlineStr">
+      <c r="A5" s="45" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
+      <c r="B5" s="40" t="n"/>
       <c r="C5" s="20" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -9279,7 +9279,7 @@
         <v>151398692.63244</v>
       </c>
       <c r="C2" s="33" t="n">
-        <v>0</v>
+        <v>124849980.5838664</v>
       </c>
       <c r="D2" s="34" t="n">
         <v>0</v>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -49976,13 +49976,13 @@
         <v>3465781000</v>
       </c>
       <c r="Z2" t="n">
-        <v>5380267156.7575</v>
+        <v>5290826216.368914</v>
       </c>
       <c r="AA2" t="n">
-        <v>68952083.97187048</v>
+        <v>1103284129.575819</v>
       </c>
       <c r="AB2" t="n">
-        <v>2006291149.988393</v>
+        <v>1972938797.415551</v>
       </c>
       <c r="AC2" t="n">
         <v>18654828000</v>
@@ -50018,10 +50018,10 @@
         <v>48408965260.93394</v>
       </c>
       <c r="AN2" t="n">
-        <v>983961000</v>
+        <v>9696770217.927586</v>
       </c>
       <c r="AO2" t="n">
-        <v>35302415000</v>
+        <v>38564694267.36719</v>
       </c>
       <c r="AP2" t="n">
         <v>2406126000</v>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="5" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15620" tabRatio="600" firstSheet="5" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1152,6 +1152,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BVAbIC BAU Value Added by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1318,12 +1323,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="5.6796875" customWidth="1" min="1" max="1"/>
-    <col width="50.6796875" customWidth="1" min="2" max="2"/>
-    <col width="10.6796875" customWidth="1" min="3" max="3"/>
-    <col width="10.1796875" bestFit="1" customWidth="1" min="4" max="26"/>
+    <col width="5.6640625" customWidth="1" min="1" max="1"/>
+    <col width="50.6640625" customWidth="1" min="2" max="2"/>
+    <col width="10.6640625" customWidth="1" min="3" max="3"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17044,10 +17049,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20.1796875" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="38"/>
+    <col width="20.1640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="49">
@@ -17418,9 +17423,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13.6796875" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="13.6640625" bestFit="1" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customFormat="1" customHeight="1" s="51">
@@ -48524,11 +48529,11 @@
       <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="14.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="17.31640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.6796875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="17.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -49678,7 +49683,7 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="16" customFormat="1" customHeight="1" s="49">
       <c r="A1" s="48" t="inlineStr">
@@ -50055,23 +50060,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="5" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="5" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="5" min="3" max="23"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="3" max="23"/>
     <col width="9.5" bestFit="1" customWidth="1" style="5" min="24" max="26"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="5" min="27" max="30"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="27" max="30"/>
     <col width="9.5" bestFit="1" customWidth="1" style="5" min="31" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="5" min="37" max="38"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="37" max="38"/>
     <col width="10.5" bestFit="1" customWidth="1" style="5" min="39" max="39"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="5" min="40" max="40"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="40" max="40"/>
     <col width="9.5" bestFit="1" customWidth="1" style="5" min="41" max="42"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="5" min="43" max="45"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="43" max="45"/>
     <col width="9.5" bestFit="1" customWidth="1" style="5" min="46" max="46"/>
-    <col width="10.1796875" bestFit="1" customWidth="1" style="5" min="47" max="47"/>
-    <col width="9.1796875" customWidth="1" style="5" min="48" max="51"/>
-    <col width="9.1796875" customWidth="1" style="5" min="52" max="16384"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" style="5" min="47" max="47"/>
+    <col width="9.1640625" customWidth="1" style="5" min="48" max="51"/>
+    <col width="9.1640625" customWidth="1" style="5" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -56510,11 +56515,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -57918,10 +57923,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20.1796875" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="38"/>
+    <col width="20.1640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="49">
